--- a/aiagents4pharma/talk2knowledgegraphs/tests/files/multimodal-analysis.xlsx
+++ b/aiagents4pharma/talk2knowledgegraphs/tests/files/multimodal-analysis.xlsx
@@ -1,55 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="genes" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="drugs" sheetId="2" r:id="rId5"/>
+    <sheet name="gene-protein" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="molecular_function" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="cellular_component" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="biological_process" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="drug" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="disease" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>IL6</t>
-  </si>
-  <si>
-    <t>IL21</t>
-  </si>
-  <si>
-    <t>TNF</t>
-  </si>
-  <si>
-    <t>Mesalazine</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interleukin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transport vesicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesalazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crohn disease</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,39 +105,66 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -100,94 +175,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -195,33 +266,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -234,13 +296,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -250,15 +306,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -266,7 +320,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -274,11 +327,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -287,61 +340,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/aiagents4pharma/talk2knowledgegraphs/tests/files/multimodal-analysis.xlsx
+++ b/aiagents4pharma/talk2knowledgegraphs/tests/files/multimodal-analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="gene-protein" sheetId="1" state="visible" r:id="rId3"/>
@@ -14,6 +14,8 @@
     <sheet name="biological_process" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="drug" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="disease" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="cell_types" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="reactome_pathways" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,33 +27,1020 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="338">
   <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">IL6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interleukin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transport vesicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immune</t>
+    <t xml:space="preserve">ACTG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALOX5AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANKRD12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANXA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANXA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APBB1IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGDIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARID4B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP5D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12ORF57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12ORF75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19ORF60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9ORF142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPZB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCL5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD3E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEBPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHCHD10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKLF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORO1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX4I1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRIP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CST7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CX3CR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDX5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUSP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEF1A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEF1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFHD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF1AX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF3E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM173A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGFBP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FYB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLRX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLTSCR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPR183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZMH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZMK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3F3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HLA-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HLA-DPB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMGB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNRNPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOPX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSP90B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFITM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITGA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITGB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITM2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLRB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLRD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLRF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLRG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLRK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRTCAP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEPROTL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGALS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGALS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIME1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT-ATP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT-CO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT-CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT-CO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT-CYB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT-ND1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT-ND2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT-ND3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT-ND4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT-ND5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT-ND6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTIF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTRNR2L12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDUFA13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDUFV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKG7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOSIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHACTR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHF11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLCG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLIN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNISR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPP2R5C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNASET2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL13A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL36AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPLP0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPLP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS15A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S100A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S100A11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S100A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S100A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH2D1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC25A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC4A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPOCK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRP14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIGIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMSB10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMSB4X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSHZ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXNIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYROBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcium Ion Binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytosolic Large Ribosomal Subunit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large Ribosomal Subunit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytosolic Small Ribosomal Subunit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Ribosomal Subunit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focal Adhesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell-Substrate Junction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small-Subunit Processome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytolytic Granule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretory Granule Lumen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asymmetric Synapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Cell Receptor Complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytoplasmic Vesicle Lumen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postsynaptic Density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytoplasmic Translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macromolecule Biosynthetic Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein Metabolic Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribosomal Small Subunit Biogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Killer Cell Mediated Immunity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribonucleoprotein Complex Biogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribosome Biogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha-Beta T Cell Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Cell Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Cell Differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Regulation of T Cell Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Killer Cell Mediated Cytotoxicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigen Receptor-Mediated Signaling Pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruffle Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Regulation of Cytokine Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leukocyte Tethering or Rolling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Cell Receptor Signaling Pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulation of Natural Killer Cell Mediated Cytotoxicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response to Type II Interferon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leukocyte Adhesion to Vascular Endothelial Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative Regulation of Leukocyte Mediated Cytotoxicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflammatory Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellular Defense Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antimicrobial Humoral Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymphocyte Differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rRNA Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Killer Cell Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Regulation of Lymphocyte Proliferation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellular Response to Cytokine Stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Cell Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antimicrobial Humoral Immune Response Mediated by Antimicrobial Peptide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Regulation of Leukocyte Mediated Cytotoxicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophage Chemotaxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophage Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leukocyte Cell-Cell Adhesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulation of Canonical NF-kappaB Signal Transduction'</t>
   </si>
   <si>
     <t xml:space="preserve">Mesalazine</t>
   </si>
   <si>
     <t xml:space="preserve">Crohn disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4-positive, alpha-beta memory T cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naive thymus-derived CD4-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8-positive, alpha-beta memory T cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mature NK T cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effector memory CD4-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulatory T cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lymphocyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naive thymus-derived CD8-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mature alpha-beta T cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effector memory CD8-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">central memory CD4-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural killer cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma-delta T cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eukaryotic Translation Elongation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peptide Chain Elongation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formation of a Pool of Free 40S Subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L13a-mediated Translational Silencing of Ceruloplasmin Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP Hydrolysis and Joining of the 60S Ribosomal Subunit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eukaryotic Translation Termination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenocysteine Synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap-dependent Translation Initiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eukaryotic Translation Initiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonsense Mediated Decay (NMD) Independent of the Exon Junction Complex (EJC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viral mRNA Translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response of EIF2AK4 (GCN2) to Amino Acid Deficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRP-dependent Cotranslational Protein Targeting to Membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonsense Mediated Decay (NMD) Enhanced by the Exon Junction Complex (EJC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonsense-Mediated Decay (NMD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenoamino Acid Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influenza Viral RNA Transcription and Replication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellular Response to Starvation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulation of Expression of SLITs and ROBOs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influenza Infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Pathway of rRNA Processing in the Nucleolus and Cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signaling by ROBO Receptors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rRNA Processing in the Nucleus and Cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism of RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellular Responses to Stimuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism of Amino Acids and Derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nervous System Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARS-CoV-1 Modulates Host Translation Machinery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formation of the Ternary Complex, and Subsequently, the 43S Complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axon Guidance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FASTK Family Proteins Regulate Processing and Stability of Mitochondrial RNAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribosomal Scanning and Start Codon Recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation Initiation Complex Formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellular Responses to Stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRNA Activation Upon Binding of the Cap-Binding Complex and eIFs, and Subsequent Binding to 43S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitochondrial RNA Degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infectious Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viral Infection Pathways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARS-CoV-2 Modulates Host Translation Machinery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism of Proteins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tRNA Processing in the Mitochondrion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARS-CoV-1-host Interactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rRNA Processing in the Mitochondrion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARS-CoV-1 Infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immunoregulatory Interactions Between a Lymphoid and a non-Lymphoid Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immune System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory Electron Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developmental Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARS-CoV Infections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARS-CoV-2-host Interactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerobic Respiration and Respiratory Electron Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitochondrial Protein Degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptive Immune System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARS-CoV-2 Infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tRNA Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex I Biogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAP12 Signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platelet Degranulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response to Elevated Platelet Cytosolic Ca2+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAP12 Interactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innate Immune System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex IV Assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interleukin-4 and Interleukin-13 Signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytokine Signaling in Immune System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platelet Activation, Signaling and Aggregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytoprotection by HMOX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein Methylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generation of Second Messenger Molecules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell-extracellular Matrix Interactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutrophil Degranulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR Signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Semaphorin Interactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nef-mediates Down Modulation of Cell Surface Receptors by Recruiting Them to Clathrin Adapters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaperone Mediated Autophagy</t>
   </si>
 </sst>
 </file>
@@ -61,7 +1050,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -99,6 +1088,22 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,12 +1113,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -142,17 +1154,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -344,10 +1368,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A190"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -370,6 +1394,936 @@
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -391,7 +2345,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -402,8 +2356,8 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
+      <c r="A2" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -422,10 +2376,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -436,8 +2390,73 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>5</v>
+      <c r="A2" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -456,7 +2475,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -470,8 +2489,193 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
+      <c r="A2" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -492,8 +2696,8 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -504,8 +2708,8 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
+      <c r="A2" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +2730,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -538,8 +2742,541 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>8</v>
+      <c r="A2" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A80"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
